--- a/Analytics/BIGFIVE/RefereeFirstCard_bf.xlsx
+++ b/Analytics/BIGFIVE/RefereeFirstCard_bf.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="216">
   <si>
     <t>Referee</t>
   </si>
@@ -205,28 +205,100 @@
     <t>60</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>S Hooper</t>
   </si>
   <si>
+    <t>T Harrington</t>
+  </si>
+  <si>
+    <t>Benoît Bastien</t>
+  </si>
+  <si>
+    <t>A Taylor</t>
+  </si>
+  <si>
     <t>T Robinson</t>
   </si>
   <si>
+    <t>Mateo Busquets</t>
+  </si>
+  <si>
+    <t>S Barrott</t>
+  </si>
+  <si>
+    <t>César Soto</t>
+  </si>
+  <si>
+    <t>Jesús Gil</t>
+  </si>
+  <si>
+    <t>Marc Bollengier</t>
+  </si>
+  <si>
     <t>Willy Delajod</t>
   </si>
   <si>
+    <t>Benoît Millot</t>
+  </si>
+  <si>
     <t>Florian Exner</t>
   </si>
   <si>
     <t>Tobias Reichel</t>
   </si>
   <si>
+    <t>Daniele Chiffi</t>
+  </si>
+  <si>
+    <t>Abdelatif Kherradji</t>
+  </si>
+  <si>
     <t>Jeremy Stinat</t>
   </si>
   <si>
-    <t>A Taylor</t>
-  </si>
-  <si>
-    <t>Abdelatif Kherradji</t>
+    <t>Felix Zwayer</t>
   </si>
   <si>
     <t>J Gillett</t>
@@ -235,7 +307,10 @@
     <t>Alejandro Muñíz</t>
   </si>
   <si>
-    <t>S Barrott</t>
+    <t>Thomas Léonard</t>
+  </si>
+  <si>
+    <t>Luca Pairetto</t>
   </si>
   <si>
     <t>Jérémie Pignard</t>
@@ -247,30 +322,42 @@
     <t>D Coote</t>
   </si>
   <si>
-    <t>Jesús Gil</t>
-  </si>
-  <si>
-    <t>Marc Bollengier</t>
-  </si>
-  <si>
     <t>C Pawson</t>
   </si>
   <si>
-    <t>T Harrington</t>
-  </si>
-  <si>
-    <t>Benoît Bastien</t>
+    <t>R Jones</t>
+  </si>
+  <si>
+    <t>J Brooks</t>
+  </si>
+  <si>
+    <t>Tobias Stieler</t>
+  </si>
+  <si>
+    <t>Gaël Angoula</t>
+  </si>
+  <si>
+    <t>Alejandro Hernández</t>
+  </si>
+  <si>
+    <t>P Bankes</t>
   </si>
   <si>
     <t>José Luis Munuera</t>
   </si>
   <si>
+    <t>Hakim Ben El Hadj Salem</t>
+  </si>
+  <si>
     <t>Pablo González</t>
   </si>
   <si>
     <t>Marco Guida</t>
   </si>
   <si>
+    <t>Jose Maria Sánchez</t>
+  </si>
+  <si>
     <t>Ermanno Feliciani</t>
   </si>
   <si>
@@ -280,19 +367,22 @@
     <t>Gianluca Manganiello</t>
   </si>
   <si>
+    <t>Benjamin Brand</t>
+  </si>
+  <si>
+    <t>Rosario Abisso</t>
+  </si>
+  <si>
     <t>Davide Massa</t>
   </si>
   <si>
-    <t>Daniele Chiffi</t>
+    <t>Clément Turpin</t>
   </si>
   <si>
     <t>Florent Batta</t>
   </si>
   <si>
-    <t>Felix Zwayer</t>
-  </si>
-  <si>
-    <t>Clément Turpin</t>
+    <t>Michael Fabbri</t>
   </si>
   <si>
     <t>Matteo Marcenaro</t>
@@ -304,9 +394,6 @@
     <t>Simone Sozza</t>
   </si>
   <si>
-    <t>Mateo Busquets</t>
-  </si>
-  <si>
     <t>Eric Wattellier</t>
   </si>
   <si>
@@ -316,114 +403,69 @@
     <t>Guillermo Cuadra</t>
   </si>
   <si>
-    <t>Luca Pairetto</t>
-  </si>
-  <si>
     <t>Isidro Díaz de Mera</t>
   </si>
   <si>
+    <t>Marco Di Bello</t>
+  </si>
+  <si>
+    <t>Robert Hartmann</t>
+  </si>
+  <si>
     <t>A Madley</t>
   </si>
   <si>
+    <t>M Salisbury</t>
+  </si>
+  <si>
     <t>C Kavanagh</t>
   </si>
   <si>
+    <t>Francisco Hernández</t>
+  </si>
+  <si>
     <t>Juan Pulido</t>
   </si>
   <si>
-    <t>César Soto</t>
-  </si>
-  <si>
     <t>Antonio Rapuano</t>
   </si>
   <si>
     <t>Florian Badstübner</t>
   </si>
   <si>
+    <t>Bastian Dankert</t>
+  </si>
+  <si>
     <t>Paride Tremolada</t>
   </si>
   <si>
+    <t>Christian Dingert</t>
+  </si>
+  <si>
+    <t>Livio Marinelli</t>
+  </si>
+  <si>
+    <t>Tobias Welz</t>
+  </si>
+  <si>
+    <t>M Oliver</t>
+  </si>
+  <si>
     <t>Stéphanie Frappart</t>
   </si>
   <si>
-    <t>Tobias Welz</t>
-  </si>
-  <si>
-    <t>R Jones</t>
-  </si>
-  <si>
-    <t>M Oliver</t>
-  </si>
-  <si>
-    <t>J Brooks</t>
-  </si>
-  <si>
-    <t>Tobias Stieler</t>
-  </si>
-  <si>
-    <t>Gaël Angoula</t>
-  </si>
-  <si>
     <t>Juan Martínez</t>
   </si>
   <si>
+    <t>Martin Petersen</t>
+  </si>
+  <si>
+    <t>Kevin Bonacina</t>
+  </si>
+  <si>
     <t>Gianluca Aureliano</t>
   </si>
   <si>
-    <t>Benoît Millot</t>
-  </si>
-  <si>
-    <t>Alejandro Hernández</t>
-  </si>
-  <si>
-    <t>P Bankes</t>
-  </si>
-  <si>
-    <t>Hakim Ben El Hadj Salem</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
@@ -439,31 +481,103 @@
     <t>79</t>
   </si>
   <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
     <t>Andrea Colombo</t>
   </si>
   <si>
+    <t>Maurizio Mariani</t>
+  </si>
+  <si>
     <t>Harm Osmers</t>
   </si>
   <si>
+    <t>Víctor García</t>
+  </si>
+  <si>
+    <t>François Letexier</t>
+  </si>
+  <si>
+    <t>S Attwell</t>
+  </si>
+  <si>
+    <t>Miguel Ángel Ortiz Arias</t>
+  </si>
+  <si>
+    <t>Matteo Marchetti</t>
+  </si>
+  <si>
     <t>Alejandro Quintero</t>
   </si>
   <si>
-    <t>Víctor García</t>
-  </si>
-  <si>
-    <t>Maurizio Mariani</t>
-  </si>
-  <si>
-    <t>François Letexier</t>
+    <t>Sven Jablonski</t>
+  </si>
+  <si>
+    <t>Sören Storks</t>
+  </si>
+  <si>
+    <t>Luca Zufferli</t>
   </si>
   <si>
     <t>Juan Luca Sacchi</t>
   </si>
   <si>
-    <t>S Attwell</t>
-  </si>
-  <si>
-    <t>Thomas Léonard</t>
+    <t>J Smith</t>
+  </si>
+  <si>
+    <t>Marco Piccinini</t>
+  </si>
+  <si>
+    <t>Daniel Siebert</t>
+  </si>
+  <si>
+    <t>Ricardo de Burgos</t>
+  </si>
+  <si>
+    <t>Sascha Stegemann</t>
   </si>
   <si>
     <t>Francesco Fourneau</t>
@@ -472,133 +586,79 @@
     <t>Federico La Penna</t>
   </si>
   <si>
-    <t>Robert Hartmann</t>
-  </si>
-  <si>
-    <t>Bastian Dankert</t>
-  </si>
-  <si>
-    <t>Sven Jablonski</t>
+    <t>Adrián Cordero</t>
+  </si>
+  <si>
+    <t>T Bramall</t>
+  </si>
+  <si>
+    <t>D England</t>
+  </si>
+  <si>
+    <t>Romain Lissorgue</t>
   </si>
   <si>
     <t>Mario Melero</t>
   </si>
   <si>
-    <t>Sören Storks</t>
+    <t>Mathieu Vernice</t>
   </si>
   <si>
     <t>José Sánchez</t>
   </si>
   <si>
-    <t>Luca Zufferli</t>
-  </si>
-  <si>
-    <t>Michael Fabbri</t>
-  </si>
-  <si>
-    <t>Sascha Stegemann</t>
-  </si>
-  <si>
-    <t>Marco Piccinini</t>
-  </si>
-  <si>
-    <t>Ricardo de Burgos</t>
-  </si>
-  <si>
-    <t>Daniel Siebert</t>
-  </si>
-  <si>
-    <t>J Smith</t>
+    <t>L Smith</t>
+  </si>
+  <si>
+    <t>Timo Gerach</t>
   </si>
   <si>
     <t>Davide Di Marco</t>
   </si>
   <si>
-    <t>Adrián Cordero</t>
+    <t>Federico Dionisi</t>
   </si>
   <si>
     <t>S Allison</t>
   </si>
   <si>
-    <t>Miguel Ángel Ortiz Arias</t>
-  </si>
-  <si>
-    <t>Christian Dingert</t>
-  </si>
-  <si>
-    <t>Livio Marinelli</t>
-  </si>
-  <si>
-    <t>Matteo Marchetti</t>
-  </si>
-  <si>
     <t>Frank Willenborg</t>
   </si>
   <si>
-    <t>Romain Lissorgue</t>
-  </si>
-  <si>
-    <t>Mathieu Vernice</t>
-  </si>
-  <si>
-    <t>Benjamin Brand</t>
-  </si>
-  <si>
-    <t>Rosario Abisso</t>
+    <t>Luca Massimi</t>
+  </si>
+  <si>
+    <t>Bastien Dechepy</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>D Bond</t>
   </si>
   <si>
     <t>Daniel Schlager</t>
   </si>
   <si>
-    <t>D Bond</t>
-  </si>
-  <si>
-    <t>Jose Maria Sánchez</t>
-  </si>
-  <si>
-    <t>L Smith</t>
-  </si>
-  <si>
-    <t>Timo Gerach</t>
-  </si>
-  <si>
-    <t>Francisco Hernández</t>
-  </si>
-  <si>
-    <t>D England</t>
+    <t>Daniele Doveri</t>
   </si>
   <si>
     <t>Javier Alberola</t>
   </si>
   <si>
-    <t>Martin Petersen</t>
-  </si>
-  <si>
-    <t>Bastien Dechepy</t>
-  </si>
-  <si>
-    <t>Federico Dionisi</t>
-  </si>
-  <si>
     <t>Antonio Giua</t>
   </si>
   <si>
-    <t>Daniele Doveri</t>
-  </si>
-  <si>
-    <t>M Salisbury</t>
-  </si>
-  <si>
     <t>Max Burda</t>
   </si>
   <si>
     <t>Maria Sole Ferrieri Caputi</t>
   </si>
   <si>
+    <t>Robin Braun</t>
+  </si>
+  <si>
     <t>Alessandro Prontera</t>
-  </si>
-  <si>
-    <t>Marco Di Bello</t>
   </si>
   <si>
     <t>Giuseppe Collu</t>
@@ -680,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -691,10 +751,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -702,10 +762,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -713,10 +773,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -724,10 +784,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -735,10 +795,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -746,10 +806,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -757,10 +817,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -768,10 +828,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -779,10 +839,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -790,10 +850,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -801,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -812,7 +872,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -823,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -834,7 +894,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -845,7 +905,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -856,7 +916,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C19" t="n">
         <v>2.0</v>
@@ -867,7 +927,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C20" t="n">
         <v>2.0</v>
@@ -878,7 +938,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C21" t="n">
         <v>2.0</v>
@@ -889,7 +949,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C22" t="n">
         <v>2.0</v>
@@ -900,7 +960,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
@@ -911,10 +971,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -922,10 +982,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -933,10 +993,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -944,10 +1004,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
@@ -955,10 +1015,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -966,10 +1026,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -977,10 +1037,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -988,10 +1048,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -999,10 +1059,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -1010,10 +1070,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
@@ -1021,10 +1081,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -1032,10 +1092,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
@@ -1043,10 +1103,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -1054,10 +1114,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -1065,7 +1125,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C38" t="n">
         <v>1.0</v>
@@ -1076,7 +1136,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C39" t="n">
         <v>1.0</v>
@@ -1087,7 +1147,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C40" t="n">
         <v>1.0</v>
@@ -1098,7 +1158,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C41" t="n">
         <v>1.0</v>
@@ -1109,7 +1169,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C42" t="n">
         <v>1.0</v>
@@ -1120,7 +1180,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C43" t="n">
         <v>1.0</v>
@@ -1131,7 +1191,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="C44" t="n">
         <v>1.0</v>
@@ -1142,7 +1202,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C45" t="n">
         <v>1.0</v>
@@ -1153,7 +1213,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C46" t="n">
         <v>1.0</v>
@@ -1164,7 +1224,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C47" t="n">
         <v>1.0</v>
@@ -1175,7 +1235,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C48" t="n">
         <v>1.0</v>
@@ -1186,7 +1246,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C49" t="n">
         <v>1.0</v>
@@ -1197,7 +1257,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C50" t="n">
         <v>1.0</v>
@@ -1208,7 +1268,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C51" t="n">
         <v>1.0</v>
@@ -1219,7 +1279,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C52" t="n">
         <v>1.0</v>
@@ -1230,7 +1290,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C53" t="n">
         <v>1.0</v>
@@ -1241,7 +1301,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C54" t="n">
         <v>1.0</v>
@@ -1252,7 +1312,7 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C55" t="n">
         <v>1.0</v>
@@ -1263,7 +1323,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C56" t="n">
         <v>1.0</v>
@@ -1274,7 +1334,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C57" t="n">
         <v>1.0</v>
@@ -1285,7 +1345,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C58" t="n">
         <v>1.0</v>
@@ -1296,7 +1356,7 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C59" t="n">
         <v>1.0</v>
@@ -1307,7 +1367,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="C60" t="n">
         <v>1.0</v>
@@ -1318,9 +1378,163 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C61" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1362,10 +1576,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -1373,10 +1587,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -1384,10 +1598,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -1395,10 +1609,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -1406,10 +1620,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -1417,10 +1631,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -1428,7 +1642,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -1439,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -1450,7 +1664,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -1461,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -1472,7 +1686,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -1483,7 +1697,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -1494,7 +1708,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -1505,10 +1719,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -1516,10 +1730,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
@@ -1527,10 +1741,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -1538,10 +1752,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -1549,10 +1763,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -1560,10 +1774,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
@@ -1571,10 +1785,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
@@ -1582,10 +1796,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -1593,10 +1807,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
@@ -1604,10 +1818,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -1615,10 +1829,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
@@ -1626,10 +1840,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
@@ -1637,10 +1851,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="29">
@@ -1648,10 +1862,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="C29" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="30">
@@ -1659,10 +1873,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="C30" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="31">
@@ -1670,7 +1884,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C31" t="n">
         <v>2.0</v>
@@ -1681,7 +1895,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C32" t="n">
         <v>2.0</v>
@@ -1692,7 +1906,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="C33" t="n">
         <v>2.0</v>
@@ -1703,10 +1917,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -1714,10 +1928,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
@@ -1725,10 +1939,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -1736,10 +1950,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -1747,10 +1961,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -1758,10 +1972,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="C39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -1769,10 +1983,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="C40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="41">
@@ -1780,10 +1994,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -1791,10 +2005,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
@@ -1802,10 +2016,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
@@ -1813,10 +2027,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="C44" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -1824,10 +2038,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="C45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -1835,10 +2049,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
@@ -1846,10 +2060,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="C47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
@@ -1857,10 +2071,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -1868,10 +2082,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C49" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
@@ -1879,10 +2093,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C50" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -1890,10 +2104,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="C51" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -1901,10 +2115,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -1912,10 +2126,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -1923,10 +2137,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="C54" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -1934,10 +2148,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C55" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -1945,10 +2159,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="C56" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
@@ -1956,10 +2170,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
@@ -1967,10 +2181,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
@@ -1978,10 +2192,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
@@ -1989,10 +2203,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="C60" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
@@ -2000,73 +2214,73 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="C61" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="C62" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="C63" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="C64" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>104</v>
       </c>
       <c r="C65" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C66" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="C67" t="n">
         <v>1.0</v>
@@ -2074,10 +2288,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="C68" t="n">
         <v>1.0</v>
@@ -2085,10 +2299,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="C69" t="n">
         <v>1.0</v>
@@ -2096,10 +2310,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="C70" t="n">
         <v>1.0</v>
@@ -2107,10 +2321,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C71" t="n">
         <v>1.0</v>
@@ -2118,10 +2332,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C72" t="n">
         <v>1.0</v>
@@ -2129,10 +2343,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="C73" t="n">
         <v>1.0</v>
@@ -2140,10 +2354,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C74" t="n">
         <v>1.0</v>
@@ -2151,10 +2365,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="C75" t="n">
         <v>1.0</v>
@@ -2162,10 +2376,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C76" t="n">
         <v>1.0</v>
@@ -2173,10 +2387,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="C77" t="n">
         <v>1.0</v>
@@ -2184,10 +2398,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="C78" t="n">
         <v>1.0</v>
@@ -2195,10 +2409,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C79" t="n">
         <v>1.0</v>
@@ -2206,12 +2420,177 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" t="s">
+        <v>200</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
         <v>139</v>
       </c>
-      <c r="B80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" t="n">
+      <c r="C89" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2253,10 +2632,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -2264,10 +2643,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -2275,10 +2654,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -2286,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
@@ -2297,10 +2676,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -2308,10 +2687,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -2319,10 +2698,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -2330,10 +2709,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -2341,10 +2720,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -2352,7 +2731,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -2363,10 +2742,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -2374,10 +2753,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -2385,10 +2764,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -2396,10 +2775,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -2407,10 +2786,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
@@ -2418,10 +2797,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -2429,10 +2808,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -2440,10 +2819,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -2451,10 +2830,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
@@ -2462,10 +2841,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2852,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,10 +2863,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
@@ -2495,10 +2874,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -2506,10 +2885,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
@@ -2517,10 +2896,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="28">
@@ -2528,10 +2907,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="29">
@@ -2539,7 +2918,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C29" t="n">
         <v>2.0</v>
@@ -2550,7 +2929,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" t="n">
         <v>2.0</v>
@@ -2561,7 +2940,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C31" t="n">
         <v>2.0</v>
@@ -2572,7 +2951,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C32" t="n">
         <v>2.0</v>
@@ -2583,7 +2962,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C33" t="n">
         <v>2.0</v>
@@ -2594,7 +2973,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="C34" t="n">
         <v>2.0</v>
@@ -2605,7 +2984,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="C35" t="n">
         <v>2.0</v>
@@ -2616,7 +2995,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C36" t="n">
         <v>2.0</v>
@@ -2627,7 +3006,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C37" t="n">
         <v>2.0</v>
@@ -2638,7 +3017,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="C38" t="n">
         <v>2.0</v>
@@ -2649,7 +3028,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="C39" t="n">
         <v>2.0</v>
@@ -2660,7 +3039,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="C40" t="n">
         <v>2.0</v>
@@ -2671,10 +3050,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C41" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="42">
@@ -2682,10 +3061,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
@@ -2693,10 +3072,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="44">
@@ -2704,10 +3083,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C44" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="45">
@@ -2715,10 +3094,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -2726,10 +3105,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
@@ -2737,10 +3116,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C47" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="48">
@@ -2748,10 +3127,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -2759,10 +3138,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="C49" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="50">
@@ -2770,10 +3149,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C50" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="51">
@@ -2781,10 +3160,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="C51" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -2792,10 +3171,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53">
@@ -2803,10 +3182,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="54">
@@ -2814,10 +3193,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C54" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -2825,10 +3204,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="C55" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="56">
@@ -2836,10 +3215,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="C56" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
@@ -2847,10 +3226,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
@@ -2858,10 +3237,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="59">
@@ -2869,10 +3248,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="60">
@@ -2880,7 +3259,7 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="C60" t="n">
         <v>1.0</v>
@@ -2891,7 +3270,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="C61" t="n">
         <v>1.0</v>
@@ -2899,10 +3278,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C62" t="n">
         <v>1.0</v>
@@ -2910,10 +3289,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C63" t="n">
         <v>1.0</v>
@@ -2921,10 +3300,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="C64" t="n">
         <v>1.0</v>
@@ -2932,10 +3311,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="C65" t="n">
         <v>1.0</v>
@@ -2943,10 +3322,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="C66" t="n">
         <v>1.0</v>
@@ -2954,10 +3333,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C67" t="n">
         <v>1.0</v>
@@ -2965,10 +3344,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C68" t="n">
         <v>1.0</v>
@@ -2976,10 +3355,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="C69" t="n">
         <v>1.0</v>
@@ -2987,10 +3366,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="C70" t="n">
         <v>1.0</v>
@@ -2998,10 +3377,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C71" t="n">
         <v>1.0</v>
@@ -3009,10 +3388,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="C72" t="n">
         <v>1.0</v>
@@ -3020,10 +3399,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="C73" t="n">
         <v>1.0</v>
@@ -3031,10 +3410,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C74" t="n">
         <v>1.0</v>
@@ -3042,10 +3421,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="C75" t="n">
         <v>1.0</v>
@@ -3053,10 +3432,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="C76" t="n">
         <v>1.0</v>
@@ -3064,10 +3443,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="C77" t="n">
         <v>1.0</v>
@@ -3075,10 +3454,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C78" t="n">
         <v>1.0</v>
@@ -3086,10 +3465,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="C79" t="n">
         <v>1.0</v>
@@ -3097,12 +3476,188 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>155</v>
+      </c>
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" t="s">
         <v>139</v>
       </c>
-      <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" t="n">
+      <c r="C87" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>204</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3144,10 +3699,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -3155,10 +3710,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -3166,10 +3721,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -3177,10 +3732,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -3188,10 +3743,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -3199,10 +3754,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -3210,10 +3765,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -3221,10 +3776,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -3232,10 +3787,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -3243,7 +3798,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -3254,7 +3809,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -3265,7 +3820,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -3276,7 +3831,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -3287,7 +3842,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -3298,7 +3853,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -3309,10 +3864,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -3320,10 +3875,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
@@ -3331,10 +3886,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -3342,10 +3897,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
@@ -3353,10 +3908,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -3364,10 +3919,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -3375,10 +3930,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -3386,10 +3941,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -3397,10 +3952,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -3408,10 +3963,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
@@ -3419,10 +3974,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -3430,10 +3985,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -3441,10 +3996,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -3452,10 +4007,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="32">
@@ -3463,10 +4018,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -3474,10 +4029,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
@@ -3485,10 +4040,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C34" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="35">
@@ -3496,10 +4051,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
@@ -3507,10 +4062,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="C36" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -3518,10 +4073,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="C37" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="38">
@@ -3529,10 +4084,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="C38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39">
@@ -3540,7 +4095,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="C39" t="n">
         <v>1.0</v>
@@ -3551,7 +4106,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C40" t="n">
         <v>1.0</v>
@@ -3562,7 +4117,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C41" t="n">
         <v>1.0</v>
@@ -3573,7 +4128,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="C42" t="n">
         <v>1.0</v>
@@ -3584,7 +4139,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C43" t="n">
         <v>1.0</v>
@@ -3595,7 +4150,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C44" t="n">
         <v>1.0</v>
@@ -3606,7 +4161,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C45" t="n">
         <v>1.0</v>
@@ -3617,7 +4172,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="C46" t="n">
         <v>1.0</v>
@@ -3628,7 +4183,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" t="n">
         <v>1.0</v>
@@ -3639,7 +4194,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="C48" t="n">
         <v>1.0</v>
@@ -3650,7 +4205,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="C49" t="n">
         <v>1.0</v>
@@ -3661,7 +4216,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="C50" t="n">
         <v>1.0</v>
@@ -3672,7 +4227,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="C51" t="n">
         <v>1.0</v>
@@ -3683,9 +4238,185 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="C52" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3727,7 +4458,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -3738,10 +4469,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -3749,10 +4480,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -3760,10 +4491,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -3771,10 +4502,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -3782,10 +4513,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -3793,10 +4524,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -3804,10 +4535,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -3815,10 +4546,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -3826,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -3837,7 +4568,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -3848,7 +4579,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -3859,7 +4590,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -3870,7 +4601,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -3881,7 +4612,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -3892,7 +4623,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -3903,7 +4634,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -3914,7 +4645,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -3925,7 +4656,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -3936,7 +4667,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
@@ -3947,7 +4678,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -3958,7 +4689,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -3969,7 +4700,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -3980,7 +4711,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
@@ -3991,7 +4722,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -4002,9 +4733,196 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -4046,10 +4964,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -4057,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -4068,10 +4986,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -4079,10 +4997,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -4090,7 +5008,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -4101,7 +5019,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -4112,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -4123,7 +5041,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -4145,7 +5063,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -4156,7 +5074,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -4167,7 +5085,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -4178,7 +5096,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -4189,7 +5107,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -4200,7 +5118,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -4211,7 +5129,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -4222,7 +5140,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -4233,9 +5151,108 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="n">
         <v>1.0</v>
       </c>
     </row>
